--- a/Requirments/SIQ_Travel_Advisor_Web_Application .xlsx
+++ b/Requirments/SIQ_Travel_Advisor_Web_Application .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My Lab\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1247F7B6-9956-4DDA-90FA-383902087624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2090C06C-A6A9-4098-A443-71B032F7EC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{2674161D-EE9C-4604-9960-F90C21651282}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{2674161D-EE9C-4604-9960-F90C21651282}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -285,6 +285,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Should the </t>
@@ -295,6 +296,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>rating system</t>
@@ -304,6 +306,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> use a </t>
@@ -314,6 +317,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>5-star scale with text box</t>
@@ -323,6 +327,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> and be displayed in </t>
@@ -333,6 +338,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>user history</t>
@@ -342,6 +348,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>?</t>
@@ -407,32 +414,6 @@
   </si>
   <si>
     <t>SIQ-User-01</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Should users be able to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>register, log in, book, cancel bookings, and leave ratings</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>?</t>
-    </r>
   </si>
   <si>
     <t>No</t>
@@ -541,6 +522,162 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Should the system validate that the email field contains a valid 
+email pattern (e.g., example@domain.com)?</t>
+  </si>
+  <si>
+    <t>Should the email field include placeholder text like "Enter your email"?</t>
+  </si>
+  <si>
+    <t>Should the system display an error message for invalid email input
+: "Invalid email address"?</t>
+  </si>
+  <si>
+    <t>Should the system display an error message for incorrect password 
+: "incorrect  password"?</t>
+  </si>
+  <si>
+    <t>Should the system limit login attempts by locking the account after 4 consecutive failed attempts, locking it for 10 minutes, and then allowing 3 more attempts before locking again?</t>
+  </si>
+  <si>
+    <t>Should the system offer a "Show/Hide Password" toggle for usability?</t>
+  </si>
+  <si>
+    <t>Should the email &amp; password input be mandatory and display an error message if left blank?
+"This field is required"</t>
+  </si>
+  <si>
+    <t>SIQ-Login-02</t>
+  </si>
+  <si>
+    <t>SIQ-Login-03</t>
+  </si>
+  <si>
+    <t>SIQ-Login-04</t>
+  </si>
+  <si>
+    <t>SIQ-Login-05</t>
+  </si>
+  <si>
+    <t>SIQ-Login-06</t>
+  </si>
+  <si>
+    <t>SIQ-Login-07</t>
+  </si>
+  <si>
+    <t>SIQ-Login-08</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Should users be able to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>register</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>book</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cancel bookings</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>leave ratings</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -567,6 +704,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -574,6 +712,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -591,7 +730,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -614,11 +753,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -638,11 +855,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -663,56 +902,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -727,9 +916,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -767,7 +956,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -873,7 +1062,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1015,7 +1204,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1023,22 +1212,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDEFC7B-DB76-4D04-9BD8-E2FA5959905A}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.15625" customWidth="1"/>
-    <col min="2" max="2" width="28.15625" customWidth="1"/>
-    <col min="3" max="3" width="8.83984375" style="2"/>
-    <col min="4" max="4" width="37.68359375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="55.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="37.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1052,7 +1241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1060,13 +1249,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1074,13 +1263,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1088,92 +1277,219 @@
         <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C10">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+  <mergeCells count="3">
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B23:J23"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C2:C21">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C10">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="C3:C21">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1181,7 +1497,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{393DC812-3AA0-46D6-B19C-9C624FCB732C}">
       <formula1>"Yes , No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C10" xr:uid="{D02E2915-7FFB-4A8E-80E2-71005AD9C014}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C20" xr:uid="{D02E2915-7FFB-4A8E-80E2-71005AD9C014}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Requirments/SIQ_Travel_Advisor_Web_Application .xlsx
+++ b/Requirments/SIQ_Travel_Advisor_Web_Application .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2090C06C-A6A9-4098-A443-71B032F7EC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B4462B-21E3-423D-A801-C9AC63FC5D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{2674161D-EE9C-4604-9960-F90C21651282}"/>
+    <workbookView minimized="1" xWindow="6108" yWindow="3708" windowWidth="17280" windowHeight="8880" xr2:uid="{2674161D-EE9C-4604-9960-F90C21651282}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -678,6 +678,12 @@
       </rPr>
       <t>?</t>
     </r>
+  </si>
+  <si>
+    <t>Should the photo gallery appear just on the homepage, or would you like it to have its own page too?</t>
+  </si>
+  <si>
+    <t>SIQ-Gallery-02</t>
   </si>
 </sst>
 </file>
@@ -855,10 +861,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -874,9 +876,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1215,8 +1221,8 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1406,7 +1412,7 @@
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1419,63 +1425,67 @@
       <c r="A17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="11"/>
+    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="9"/>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="11"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="B20" s="9"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="22" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Requirments/SIQ_Travel_Advisor_Web_Application .xlsx
+++ b/Requirments/SIQ_Travel_Advisor_Web_Application .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ITI\Quality Assurance  Dr.mohamed hassen\workshop Repo\Travel-Advisor-Web-Application\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B4462B-21E3-423D-A801-C9AC63FC5D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6676AD56-CB0D-46EA-AD67-8C04E17EA62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6108" yWindow="3708" windowWidth="17280" windowHeight="8880" xr2:uid="{2674161D-EE9C-4604-9960-F90C21651282}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2674161D-EE9C-4604-9960-F90C21651282}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -59,7 +59,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -69,7 +69,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -88,7 +88,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -98,7 +98,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -109,7 +109,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -119,7 +119,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -130,7 +130,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -140,7 +140,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -159,7 +159,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -169,7 +169,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -180,7 +180,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -190,7 +190,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -201,7 +201,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -211,7 +211,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -230,7 +230,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -240,7 +240,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -259,7 +259,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -269,7 +269,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -284,7 +284,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -295,7 +295,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -305,7 +305,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -316,7 +316,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -326,7 +326,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -337,7 +337,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -347,7 +347,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -366,7 +366,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -376,7 +376,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -395,7 +395,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -405,7 +405,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -427,7 +427,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -437,7 +437,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -461,7 +461,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -471,7 +471,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -482,7 +482,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -492,7 +492,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -503,7 +503,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -513,7 +513,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -578,7 +578,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -588,7 +588,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -599,7 +599,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -609,7 +609,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -620,7 +620,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -630,7 +630,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -641,7 +641,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -651,7 +651,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -662,7 +662,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -672,7 +672,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -684,6 +684,34 @@
   </si>
   <si>
     <t>SIQ-Gallery-02</t>
+  </si>
+  <si>
+    <t>Should all registration form fields be mandatory with a "This field is required" error message if left blank?</t>
+  </si>
+  <si>
+    <t>Should the system validate the email format (e.g., example@domain.com) and display an error "Invalid email" for invalid patterns?</t>
+  </si>
+  <si>
+    <t>Should input fields include placeholder text (e.g., "Enter your email")?</t>
+  </si>
+  <si>
+    <t>SIQ-Reg-04</t>
+  </si>
+  <si>
+    <t>Should the system display a specific error message (e.g., "Invalid username") if the username contains numbers/special characters?</t>
+  </si>
+  <si>
+    <t>SIQ-Reg-05</t>
+  </si>
+  <si>
+    <t>Should the system display a specific error message 
+(e.g., "Invalid password") if the password doesn’t meet complexity rules?</t>
+  </si>
+  <si>
+    <t>SIQ-Reg-06</t>
+  </si>
+  <si>
+    <t>Should the system display an error message ("Passwords do not match") if the "Confirm Password" field does not match the "Password" field?</t>
   </si>
 </sst>
 </file>
@@ -694,7 +722,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -702,14 +730,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -717,7 +745,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -736,7 +764,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -837,11 +865,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -879,10 +931,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1218,22 +1285,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDEFC7B-DB76-4D04-9BD8-E2FA5959905A}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
-    <col min="2" max="2" width="55.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="37.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" customWidth="1"/>
+    <col min="2" max="2" width="55.3984375" customWidth="1"/>
+    <col min="3" max="3" width="8.8984375" style="2"/>
+    <col min="4" max="4" width="37.69921875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1247,7 +1314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1261,7 +1328,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1275,7 +1342,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1287,7 +1354,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1301,7 +1368,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1313,7 +1380,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1325,7 +1392,7 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1337,7 +1404,7 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1349,7 +1416,7 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1361,7 +1428,7 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>33</v>
       </c>
@@ -1371,7 +1438,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
@@ -1381,7 +1448,7 @@
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
@@ -1391,7 +1458,7 @@
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1401,7 +1468,7 @@
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
@@ -1411,7 +1478,7 @@
       <c r="C15" s="5"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>38</v>
       </c>
@@ -1421,7 +1488,7 @@
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>39</v>
       </c>
@@ -1431,7 +1498,7 @@
       <c r="C17" s="5"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>42</v>
       </c>
@@ -1441,64 +1508,217 @@
       <c r="C18" s="9"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="11"/>
+    <row r="19" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="C19" s="9"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="7"/>
+    <row r="20" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-    </row>
-    <row r="22" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-    </row>
-    <row r="23" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
+    <row r="21" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B23:J23"/>
-  </mergeCells>
-  <conditionalFormatting sqref="C2:C21">
+  <conditionalFormatting sqref="C2:C46">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C21">
+  <conditionalFormatting sqref="C3:C46">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
@@ -1507,7 +1727,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{393DC812-3AA0-46D6-B19C-9C624FCB732C}">
       <formula1>"Yes , No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C20" xr:uid="{D02E2915-7FFB-4A8E-80E2-71005AD9C014}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C46" xr:uid="{D02E2915-7FFB-4A8E-80E2-71005AD9C014}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Requirments/SIQ_Travel_Advisor_Web_Application .xlsx
+++ b/Requirments/SIQ_Travel_Advisor_Web_Application .xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ITI\Quality Assurance  Dr.mohamed hassen\workshop Repo\Travel-Advisor-Web-Application\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6676AD56-CB0D-46EA-AD67-8C04E17EA62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2674161D-EE9C-4604-9960-F90C21651282}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -59,7 +58,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -69,7 +68,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -88,7 +87,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -98,7 +97,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -109,7 +108,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -119,7 +118,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -130,7 +129,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -140,7 +139,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -159,7 +158,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -169,7 +168,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -180,7 +179,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -190,7 +189,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -201,7 +200,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -211,7 +210,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -230,7 +229,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -240,7 +239,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -259,7 +258,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -269,7 +268,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -284,7 +283,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -295,7 +294,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -305,7 +304,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -316,7 +315,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -326,7 +325,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -337,7 +336,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -347,7 +346,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -366,7 +365,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -376,7 +375,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -395,7 +394,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -405,7 +404,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -427,7 +426,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -437,7 +436,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -461,7 +460,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -471,7 +470,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -482,7 +481,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -492,7 +491,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -503,7 +502,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -513,7 +512,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -578,7 +577,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -588,7 +587,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -599,7 +598,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -609,7 +608,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -620,7 +619,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -630,7 +629,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -641,7 +640,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -651,7 +650,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -662,7 +661,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -672,7 +671,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -712,17 +711,23 @@
   </si>
   <si>
     <t>Should the system display an error message ("Passwords do not match") if the "Confirm Password" field does not match the "Password" field?</t>
+  </si>
+  <si>
+    <t>SIQ-Admin-02</t>
+  </si>
+  <si>
+    <t>Should the error message displayed if an Admin tried to update a user or delete a comment be "Unauthorized : You do not have permission to perform this action."?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -730,14 +735,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -745,7 +750,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1284,20 +1289,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDEFC7B-DB76-4D04-9BD8-E2FA5959905A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" customWidth="1"/>
-    <col min="2" max="2" width="55.3984375" customWidth="1"/>
-    <col min="3" max="3" width="8.8984375" style="2"/>
-    <col min="4" max="4" width="37.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="55.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="2"/>
+    <col min="4" max="4" width="37.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1314,7 +1319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1328,7 +1333,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1342,7 +1347,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1354,7 +1359,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1368,7 +1373,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1380,7 +1385,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1392,7 +1397,7 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1404,7 +1409,7 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1416,7 +1421,7 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1428,7 +1433,7 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>33</v>
       </c>
@@ -1438,7 +1443,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
@@ -1448,7 +1453,7 @@
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
@@ -1458,7 +1463,7 @@
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1468,7 +1473,7 @@
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
@@ -1478,7 +1483,7 @@
       <c r="C15" s="5"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>38</v>
       </c>
@@ -1498,7 +1503,7 @@
       <c r="C17" s="5"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>42</v>
       </c>
@@ -1508,7 +1513,7 @@
       <c r="C18" s="9"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>4</v>
       </c>
@@ -1518,7 +1523,7 @@
       <c r="C19" s="9"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>6</v>
       </c>
@@ -1528,7 +1533,7 @@
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>8</v>
       </c>
@@ -1544,7 +1549,7 @@
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
     </row>
-    <row r="22" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>46</v>
       </c>
@@ -1554,7 +1559,7 @@
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>48</v>
       </c>
@@ -1570,7 +1575,7 @@
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
     </row>
-    <row r="24" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>50</v>
       </c>
@@ -1580,9 +1585,13 @@
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="7"/>
+    <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="C25" s="5"/>
       <c r="D25" s="4"/>
     </row>
@@ -1724,10 +1733,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{393DC812-3AA0-46D6-B19C-9C624FCB732C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"Yes , No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C46" xr:uid="{D02E2915-7FFB-4A8E-80E2-71005AD9C014}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C46">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Requirments/SIQ_Travel_Advisor_Web_Application .xlsx
+++ b/Requirments/SIQ_Travel_Advisor_Web_Application .xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ITI\Quality Assurance  Dr.mohamed hassen\workshop Repo\Travel-Advisor-Web-Application\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC97EE0-A3AE-4E69-9FAE-CF18206AE178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -58,7 +50,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -68,7 +60,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -87,7 +79,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -97,7 +89,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -108,7 +100,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -118,7 +110,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -129,7 +121,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -139,7 +131,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -158,7 +150,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -168,7 +160,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -179,7 +171,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -189,7 +181,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -200,7 +192,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -210,7 +202,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -229,7 +221,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -239,7 +231,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -258,7 +250,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -268,7 +260,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -283,7 +275,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -294,7 +286,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -304,7 +296,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -315,7 +307,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -325,7 +317,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -336,7 +328,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -346,7 +338,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -365,7 +357,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -375,7 +367,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -394,7 +386,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -404,7 +396,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -426,7 +418,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -436,7 +428,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -460,7 +452,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -470,7 +462,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -481,7 +473,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -491,7 +483,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -502,7 +494,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -512,7 +504,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -577,7 +569,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -587,7 +579,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -598,7 +590,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -608,7 +600,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -619,7 +611,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -629,7 +621,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -640,7 +632,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -650,7 +642,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -661,7 +653,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -671,7 +663,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -703,31 +695,41 @@
     <t>SIQ-Reg-05</t>
   </si>
   <si>
+    <t>SIQ-Reg-06</t>
+  </si>
+  <si>
+    <t>Should the system display an error message ("Passwords do not match") if the "Confirm Password" field does not match the "Password" field?</t>
+  </si>
+  <si>
+    <t>SIQ-Admin-02</t>
+  </si>
+  <si>
+    <t>Should the error message displayed if an Admin tried to update a user or delete a comment be "Unauthorized : You do not have permission to perform this action."?</t>
+  </si>
+  <si>
     <t>Should the system display a specific error message 
-(e.g., "Invalid password") if the password doesn’t meet complexity rules?</t>
-  </si>
-  <si>
-    <t>SIQ-Reg-06</t>
-  </si>
-  <si>
-    <t>Should the system display an error message ("Passwords do not match") if the "Confirm Password" field does not match the "Password" field?</t>
-  </si>
-  <si>
-    <t>SIQ-Admin-02</t>
-  </si>
-  <si>
-    <t>Should the error message displayed if an Admin tried to update a user or delete a comment be "Unauthorized : You do not have permission to perform this action."?</t>
+(e.g.,"The system shall display an error message if the user enters an invalid password.
+"Invalid password. Your password must be at least 8 characters long and include at least one special character (e.g., ! @ # $ %)."	If the password doesn’t meet the complexity rules?</t>
+  </si>
+  <si>
+    <t>SIQ-Reg-07</t>
+  </si>
+  <si>
+    <t>SIQ-Reg-08</t>
+  </si>
+  <si>
+    <t>SIQ-Reg-09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -735,14 +737,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -750,7 +752,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -769,7 +777,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -872,17 +880,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -898,7 +895,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -936,24 +933,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1289,20 +1273,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="55.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="2"/>
-    <col min="4" max="4" width="37.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" customWidth="1"/>
+    <col min="2" max="2" width="55.3984375" customWidth="1"/>
+    <col min="3" max="3" width="8.8984375" style="2"/>
+    <col min="4" max="4" width="37.69921875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1319,7 +1303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1333,7 +1317,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1347,7 +1331,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1359,7 +1343,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1373,7 +1357,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1385,7 +1369,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1397,7 +1381,7 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1409,7 +1393,7 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1421,7 +1405,7 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1433,7 +1417,7 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>33</v>
       </c>
@@ -1443,7 +1427,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
@@ -1453,7 +1437,7 @@
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
@@ -1463,7 +1447,7 @@
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1473,7 +1457,7 @@
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
@@ -1483,7 +1467,7 @@
       <c r="C15" s="5"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>38</v>
       </c>
@@ -1493,7 +1477,7 @@
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>39</v>
       </c>
@@ -1503,7 +1487,7 @@
       <c r="C17" s="5"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>42</v>
       </c>
@@ -1513,9 +1497,9 @@
       <c r="C18" s="9"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>43</v>
@@ -1523,35 +1507,29 @@
       <c r="C19" s="9"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="15" t="s">
+    <row r="20" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="17" t="s">
+    <row r="21" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-    </row>
-    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>46</v>
+    </row>
+    <row r="22" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>47</v>
@@ -1559,79 +1537,73 @@
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>49</v>
+    <row r="23" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-    </row>
-    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+    </row>
+    <row r="24" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="7"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="7"/>
       <c r="C27" s="5"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="7"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="7"/>
       <c r="C29" s="5"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="7"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="7"/>
       <c r="C31" s="5"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="7"/>
       <c r="C32" s="5"/>
@@ -1722,6 +1694,7 @@
       <c r="D46" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C2:C46">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"No"</formula>
@@ -1733,10 +1706,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Yes , No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C46" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Requirments/SIQ_Travel_Advisor_Web_Application .xlsx
+++ b/Requirments/SIQ_Travel_Advisor_Web_Application .xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ITI\Quality Assurance  Dr.mohamed hassen\workshop Repo\Travel-Advisor-Web-Application\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC97EE0-A3AE-4E69-9FAE-CF18206AE178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC740F4-2F78-4F81-9091-920B568CF917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Headers" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
   <si>
     <t>ID</t>
   </si>
@@ -720,12 +721,104 @@
   <si>
     <t>SIQ-Reg-09</t>
   </si>
+  <si>
+    <t>SIQ-Rate-02</t>
+  </si>
+  <si>
+    <t>SIQ-Rate-03</t>
+  </si>
+  <si>
+    <t>Should the system display an appropriate error message 
+(e.g., 'Unauthorized: Please log in to rate/comment.') if a non-authenticated user attempts to rate or comment?</t>
+  </si>
+  <si>
+    <t>Should the system display an error message (e.g., "Please select at least one star to submit your rating.") if the user tries to submit without selecting any stars?</t>
+  </si>
+  <si>
+    <t>Version 
+Number</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Updated section</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>V1.0</t>
+  </si>
+  <si>
+    <t>V1.1</t>
+  </si>
+  <si>
+    <t>V1.2</t>
+  </si>
+  <si>
+    <t>V1.3</t>
+  </si>
+  <si>
+    <t>V1.4</t>
+  </si>
+  <si>
+    <t>Ahmed</t>
+  </si>
+  <si>
+    <t>Moaz</t>
+  </si>
+  <si>
+    <t>Abdulkarim</t>
+  </si>
+  <si>
+    <t>moaz</t>
+  </si>
+  <si>
+    <t>V1.5</t>
+  </si>
+  <si>
+    <t>Adding CRS Question</t>
+  </si>
+  <si>
+    <t>Adding SRS-login Question</t>
+  </si>
+  <si>
+    <t>Adding SRS-Registration Question</t>
+  </si>
+  <si>
+    <t>Adding SRS-Admin Question</t>
+  </si>
+  <si>
+    <t>Edit SRS-Registration Question</t>
+  </si>
+  <si>
+    <t>Adding SRS-Rate Question</t>
+  </si>
+  <si>
+    <t>20-4-2025</t>
+  </si>
+  <si>
+    <t>20-4-2026</t>
+  </si>
+  <si>
+    <t>20-4-2027</t>
+  </si>
+  <si>
+    <t>20-4-2028</t>
+  </si>
+  <si>
+    <t>24-4-2029</t>
+  </si>
+  <si>
+    <t>25-4-2030</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -762,8 +855,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -776,8 +883,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDE49B"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -891,11 +1004,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -938,6 +1075,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1277,13 +1431,13 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.3984375" customWidth="1"/>
     <col min="3" max="3" width="8.8984375" style="2"/>
     <col min="4" max="4" width="37.69921875" style="1" customWidth="1"/>
@@ -1567,15 +1721,23 @@
       <c r="C25" s="5"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="7"/>
+    <row r="26" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="7"/>
+    <row r="27" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="C27" s="5"/>
       <c r="D27" s="4"/>
     </row>
@@ -1716,4 +1878,236 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B942D8E4-F0B7-44B8-9BF4-C1A35B86C26D}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.19921875" customWidth="1"/>
+    <col min="3" max="3" width="28.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Requirments/SIQ_Travel_Advisor_Web_Application .xlsx
+++ b/Requirments/SIQ_Travel_Advisor_Web_Application .xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ITI\Quality Assurance  Dr.mohamed hassen\workshop Repo\Travel-Advisor-Web-Application\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC740F4-2F78-4F81-9091-920B568CF917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC97EE0-A3AE-4E69-9FAE-CF18206AE178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Headers" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -721,104 +720,12 @@
   <si>
     <t>SIQ-Reg-09</t>
   </si>
-  <si>
-    <t>SIQ-Rate-02</t>
-  </si>
-  <si>
-    <t>SIQ-Rate-03</t>
-  </si>
-  <si>
-    <t>Should the system display an appropriate error message 
-(e.g., 'Unauthorized: Please log in to rate/comment.') if a non-authenticated user attempts to rate or comment?</t>
-  </si>
-  <si>
-    <t>Should the system display an error message (e.g., "Please select at least one star to submit your rating.") if the user tries to submit without selecting any stars?</t>
-  </si>
-  <si>
-    <t>Version 
-Number</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Updated section</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>V1.0</t>
-  </si>
-  <si>
-    <t>V1.1</t>
-  </si>
-  <si>
-    <t>V1.2</t>
-  </si>
-  <si>
-    <t>V1.3</t>
-  </si>
-  <si>
-    <t>V1.4</t>
-  </si>
-  <si>
-    <t>Ahmed</t>
-  </si>
-  <si>
-    <t>Moaz</t>
-  </si>
-  <si>
-    <t>Abdulkarim</t>
-  </si>
-  <si>
-    <t>moaz</t>
-  </si>
-  <si>
-    <t>V1.5</t>
-  </si>
-  <si>
-    <t>Adding CRS Question</t>
-  </si>
-  <si>
-    <t>Adding SRS-login Question</t>
-  </si>
-  <si>
-    <t>Adding SRS-Registration Question</t>
-  </si>
-  <si>
-    <t>Adding SRS-Admin Question</t>
-  </si>
-  <si>
-    <t>Edit SRS-Registration Question</t>
-  </si>
-  <si>
-    <t>Adding SRS-Rate Question</t>
-  </si>
-  <si>
-    <t>20-4-2025</t>
-  </si>
-  <si>
-    <t>20-4-2026</t>
-  </si>
-  <si>
-    <t>20-4-2027</t>
-  </si>
-  <si>
-    <t>20-4-2028</t>
-  </si>
-  <si>
-    <t>24-4-2029</t>
-  </si>
-  <si>
-    <t>25-4-2030</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -855,22 +762,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -883,14 +776,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDE49B"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1004,35 +891,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1075,23 +938,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1431,13 +1277,13 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" customWidth="1"/>
     <col min="2" max="2" width="55.3984375" customWidth="1"/>
     <col min="3" max="3" width="8.8984375" style="2"/>
     <col min="4" max="4" width="37.69921875" style="1" customWidth="1"/>
@@ -1721,23 +1567,15 @@
       <c r="C25" s="5"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>59</v>
-      </c>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>60</v>
-      </c>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="5"/>
       <c r="D27" s="4"/>
     </row>
@@ -1878,236 +1716,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B942D8E4-F0B7-44B8-9BF4-C1A35B86C26D}">
-  <dimension ref="A1:D26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.19921875" customWidth="1"/>
-    <col min="3" max="3" width="28.8984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>